--- a/data/trans_camb/IP16B01-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP16B01-Edad-trans_camb.xlsx
@@ -747,7 +747,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>88,52</t>
+          <t>96,06</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>92,68</t>
+          <t>81,77</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>79,92</t>
+          <t>70,21</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>75,84</t>
+          <t>82,94</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>83,22</t>
+          <t>84,77</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>83,61</t>
+          <t>82,72</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>71,25; 96,65</t>
+          <t>86,27; 100,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>77,24; 100,0</t>
+          <t>62,56; 93,12</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>66,67; 90,07</t>
+          <t>52,28; 83,48</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>56,48; 89,37</t>
+          <t>69,3; 92,88</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>71,93; 90,96</t>
+          <t>76,45; 91,8</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>72,62; 92,52</t>
+          <t>72,73; 90,61</t>
         </is>
       </c>
     </row>
@@ -843,22 +843,22 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>3577,73%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>4226,09%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>9918,9%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>9679,29%</t>
         </is>
       </c>
     </row>
@@ -903,7 +903,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>96,06</t>
+          <t>88,52</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>81,77</t>
+          <t>92,68</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>70,21</t>
+          <t>79,92</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>82,94</t>
+          <t>75,84</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>84,77</t>
+          <t>83,22</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>82,72</t>
+          <t>83,61</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>86,27; 100,0</t>
+          <t>71,25; 96,65</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>62,56; 93,12</t>
+          <t>77,24; 100,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>52,28; 83,48</t>
+          <t>66,67; 90,07</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>69,3; 92,88</t>
+          <t>56,48; 89,37</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>76,45; 91,8</t>
+          <t>71,93; 90,96</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>72,73; 90,61</t>
+          <t>72,62; 92,52</t>
         </is>
       </c>
     </row>
@@ -999,22 +999,22 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>3577,73%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>4226,09%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>9918,9%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>9679,29%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP16B01-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP16B01-Edad-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>93,18</t>
+          <t>100,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>90,39</t>
+          <t>95,59</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>89,26</t>
+          <t>95,34</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>81,19</t>
+          <t>92,04</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>91,25</t>
+          <t>97,66</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>85,84</t>
+          <t>93,83</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>81,25; 97,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>77,7; 97,4</t>
+          <t>73,4; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>79,87; 95,34</t>
+          <t>83,78; 100,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>66,53; 91,65</t>
+          <t>73,57; 100,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>85,46; 95,5</t>
+          <t>92,78; 100,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>75,98; 92,73</t>
+          <t>83,86; 98,21</t>
         </is>
       </c>
     </row>
@@ -687,22 +687,22 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>6048,29%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5501,53%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>12179,65%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>11457,93%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -747,7 +747,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>96,06</t>
+          <t>90,76</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>81,77</t>
+          <t>89,65</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>70,21</t>
+          <t>78,77</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>82,94</t>
+          <t>79,55</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>84,77</t>
+          <t>85,5</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>82,72</t>
+          <t>84,62</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>86,27; 100,0</t>
+          <t>81,94; 96,03</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>62,56; 93,12</t>
+          <t>77,04; 96,97</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>52,28; 83,48</t>
+          <t>66,35; 88,2</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>69,3; 92,88</t>
+          <t>63,11; 89,32</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>76,45; 91,8</t>
+          <t>78,17; 90,73</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>72,73; 90,61</t>
+          <t>75,28; 91,39</t>
         </is>
       </c>
     </row>
@@ -843,22 +843,22 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3577,73%</t>
+          <t>2523,8%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4226,09%</t>
+          <t>2548,63%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>9918,9%</t>
+          <t>5969,33%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>9679,29%</t>
+          <t>5908,02%</t>
         </is>
       </c>
     </row>
@@ -881,29 +881,29 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>723,47; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>696,35; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1788,31; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1744,94; —</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>88,52</t>
+          <t>95,84</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>92,68</t>
+          <t>66,3</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>79,92</t>
+          <t>69,69</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>75,84</t>
+          <t>83,73</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>83,22</t>
+          <t>82,26</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>83,61</t>
+          <t>77,46</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>71,25; 96,65</t>
+          <t>77,51; 100,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>77,24; 100,0</t>
+          <t>42,99; 85,73</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>66,67; 90,07</t>
+          <t>46,28; 86,93</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>56,48; 89,37</t>
+          <t>68,16; 94,16</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>71,93; 90,96</t>
+          <t>67,9; 92,8</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>72,62; 92,52</t>
+          <t>64,25; 88,05</t>
         </is>
       </c>
     </row>
@@ -1059,7 +1059,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>93,44</t>
+          <t>85,41</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>88,32</t>
+          <t>100,0</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>81,27</t>
+          <t>74,84</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>80,63</t>
+          <t>55,77</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>87,41</t>
+          <t>78,35</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>84,29</t>
+          <t>79,72</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>87,87; 96,99</t>
+          <t>61,67; 100,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>81,16; 93,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>74,24; 86,95</t>
+          <t>55,75; 88,75</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>72,36; 87,82</t>
+          <t>28,57; 80,06</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>83,27; 90,84</t>
+          <t>62,81; 88,47</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>79,33; 89,01</t>
+          <t>61,42; 90,93</t>
         </is>
       </c>
     </row>
@@ -1155,22 +1155,22 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>7549,52%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>7489,55%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>17445,82%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>16821,91%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -1193,33 +1193,197 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>2147,22; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2188,07; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>5034,97; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>4693,67; —</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>93,44</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>88,32</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>81,27</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>80,63</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>87,41</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>84,29</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>88,29; 96,69</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>80,65; 93,66</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>74,08; 87,43</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>72,15; 87,57</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>83,13; 90,85</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>78,64; 88,39</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>7549,52%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>7489,55%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>17445,82%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>16821,91%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>2063,27; —</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>2066,89; —</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>5562,92; —</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>5271,87; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/IP16B01-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP16B01-Edad-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>
@@ -644,27 +644,27 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>73,4; 100,0</t>
+          <t>76,55; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>83,78; 100,0</t>
+          <t>85,53; 100,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>73,57; 100,0</t>
+          <t>72,72; 100,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>92,78; 100,0</t>
+          <t>91,77; 100,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>83,86; 98,21</t>
+          <t>84,7; 98,22</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>81,94; 96,03</t>
+          <t>81,72; 96,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>77,04; 96,97</t>
+          <t>76,94; 95,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>66,35; 88,2</t>
+          <t>65,16; 88,43</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>63,11; 89,32</t>
+          <t>65,8; 89,64</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>78,17; 90,73</t>
+          <t>78,47; 90,93</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>75,28; 91,39</t>
+          <t>75,14; 91,03</t>
         </is>
       </c>
     </row>
@@ -881,22 +881,22 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>723,47; —</t>
+          <t>661,27; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>696,35; —</t>
+          <t>680,74; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1788,31; —</t>
+          <t>1862,06; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1744,94; —</t>
+          <t>1746,16; —</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>77,51; 100,0</t>
+          <t>81,81; 100,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>42,99; 85,73</t>
+          <t>42,1; 84,88</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>46,28; 86,93</t>
+          <t>47,1; 86,52</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>68,16; 94,16</t>
+          <t>65,53; 94,27</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>67,9; 92,8</t>
+          <t>66,63; 91,94</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>64,25; 88,05</t>
+          <t>63,27; 87,36</t>
         </is>
       </c>
     </row>
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>61,67; 100,0</t>
+          <t>55,17; 100,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1117,22 +1117,22 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>55,75; 88,75</t>
+          <t>56,15; 89,3</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>28,57; 80,06</t>
+          <t>27,51; 79,67</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>62,81; 88,47</t>
+          <t>64,37; 90,21</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>61,42; 90,93</t>
+          <t>60,92; 92,73</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>88,29; 96,69</t>
+          <t>87,91; 97,08</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>80,65; 93,66</t>
+          <t>80,36; 93,73</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>74,08; 87,43</t>
+          <t>74,29; 87,23</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>72,15; 87,57</t>
+          <t>72,99; 87,44</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>83,13; 90,85</t>
+          <t>82,82; 91,18</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>78,64; 88,39</t>
+          <t>78,39; 88,37</t>
         </is>
       </c>
     </row>
@@ -1349,22 +1349,22 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>2063,27; —</t>
+          <t>2099,55; —</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>2066,89; —</t>
+          <t>2315,25; —</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>5562,92; —</t>
+          <t>4649,46; —</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>5271,87; —</t>
+          <t>5021,03; —</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP16B01-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP16B01-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -527,13 +527,13 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="F1" s="3" t="n"/>
@@ -601,22 +601,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>95,34</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>92,04</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>100,0</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
         <is>
           <t>95,59</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>95,34</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>92,04</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>83,83; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>76,55; 100,0</t>
+          <t>73,04; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>85,53; 100,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>72,72; 100,0</t>
+          <t>74,46; 100,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>91,77; 100,0</t>
+          <t>91,7; 100,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>84,7; 98,22</t>
+          <t>83,68; 98,22</t>
         </is>
       </c>
     </row>
@@ -757,22 +757,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>78,77</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>79,55</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>90,76</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="F8" s="2" t="inlineStr">
         <is>
           <t>89,65</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>78,77</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>79,55</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>81,72; 96,31</t>
+          <t>65,19; 88,08</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>76,94; 95,48</t>
+          <t>64,99; 89,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>65,16; 88,43</t>
+          <t>79,6; 95,81</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>65,8; 89,64</t>
+          <t>78,01; 97,46</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>78,47; 90,93</t>
+          <t>77,87; 91,18</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>75,14; 91,03</t>
+          <t>74,69; 91,3</t>
         </is>
       </c>
     </row>
@@ -833,22 +833,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>2523,8%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>2548,63%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2523,8%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2548,63%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>693,96; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>645,16; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>661,27; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>680,74; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1862,06; —</t>
+          <t>1637,37; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1746,16; —</t>
+          <t>1713,1; —</t>
         </is>
       </c>
     </row>
@@ -913,22 +913,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>69,69</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>83,73</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>95,84</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="F12" s="2" t="inlineStr">
         <is>
           <t>66,3</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>69,69</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>83,73</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>81,81; 100,0</t>
+          <t>46,76; 87,95</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>42,1; 84,88</t>
+          <t>67,01; 93,82</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>47,1; 86,52</t>
+          <t>76,2; 100,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>65,53; 94,27</t>
+          <t>40,23; 84,65</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>66,63; 91,94</t>
+          <t>68,25; 91,36</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>63,27; 87,36</t>
+          <t>63,45; 88,39</t>
         </is>
       </c>
     </row>
@@ -1069,22 +1069,22 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>74,84</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>55,77</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>85,41</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="F16" s="2" t="inlineStr">
         <is>
           <t>100,0</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>74,84</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>55,77</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>55,17; 100,0</t>
+          <t>55,23; 88,9</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>27,3; 80,29</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>56,15; 89,3</t>
+          <t>56,57; 100,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>27,51; 79,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>64,37; 90,21</t>
+          <t>63,68; 88,42</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>60,92; 92,73</t>
+          <t>62,0; 92,67</t>
         </is>
       </c>
     </row>
@@ -1225,22 +1225,22 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>81,27</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>80,63</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
           <t>93,44</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="F20" s="2" t="inlineStr">
         <is>
           <t>88,32</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>81,27</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>80,63</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>87,91; 97,08</t>
+          <t>74,24; 86,95</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>80,36; 93,73</t>
+          <t>72,36; 87,82</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>74,29; 87,23</t>
+          <t>87,87; 96,99</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>72,99; 87,44</t>
+          <t>81,16; 93,98</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>82,82; 91,18</t>
+          <t>83,27; 90,84</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>78,39; 88,37</t>
+          <t>79,33; 89,01</t>
         </is>
       </c>
     </row>
@@ -1301,22 +1301,22 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>7549,52%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>7489,55%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>7549,52%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>7489,55%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2147,22; —</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2188,07; —</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>2099,55; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>2315,25; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>4649,46; —</t>
+          <t>5034,97; —</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>5021,03; —</t>
+          <t>4693,67; —</t>
         </is>
       </c>
     </row>
